--- a/db/excel/ql-tram.cuongdq.sqlite.xlsx
+++ b/db/excel/ql-tram.cuongdq.sqlite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IONIC\web.quan-ly-nha-tram\db\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716095DC-5805-4924-B0B6-998970710096}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D52956D-93DA-453A-B5BB-1AAB7F8819EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="1" r:id="rId1"/>
@@ -28,14 +28,14 @@
     <sheet name="Maintenance_Log" sheetId="13" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tables!$A$1:$F$152</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tables!$A$1:$F$180</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="319">
   <si>
     <t>varchar2(100)</t>
   </si>
@@ -802,9 +802,6 @@
     <t>signature</t>
   </si>
   <si>
-    <t>Chữ ký và dữ liệu tạo phiếu của user ban đầu (ghi lại vị trí, thời gian, id, và chữ ký)</t>
-  </si>
-  <si>
     <t>Mã nhóm (nhóm người làm việc thuộc tổ??) Trường hợp user tạo này chuyển bộ phận… thì bảng ghi này là cơ sở đánh giá thời điểm nó tạo</t>
   </si>
   <si>
@@ -893,13 +890,115 @@
   </si>
   <si>
     <t>default 1, unique(sites_id,year,quarter) , FOREIGN KEY (sites_id) REFERENCES sites(id) , FOREIGN KEY (username) REFERENCES users(username)</t>
+  </si>
+  <si>
+    <t>maintenance_sheet_report</t>
+  </si>
+  <si>
+    <t>maintenance_sheet_id</t>
+  </si>
+  <si>
+    <t>ID phiếu bảo dưỡng (fk với bảng maintenance_sheet - duy nhất)</t>
+  </si>
+  <si>
+    <t>ID phiếu chấm điểm (tự sinh, nếu cho phép ghi mỗi lần chấm là một bảng? Để lưu lại lịch sử, và kết quả là bảng sau cùng (có id lớn nhất)</t>
+  </si>
+  <si>
+    <t>default 1</t>
+  </si>
+  <si>
+    <t>Chữ ký và dữ liệu tạo phiếu của user ban đầu (ghi lại vị trí, thời gian, id, và chữ ký, các thông tin khác option)</t>
+  </si>
+  <si>
+    <t>unique(maintenance_sheet_id) , FOREIGN KEY (maintenance_sheet_id) REFERENCES maintenance_sheet(id)</t>
+  </si>
+  <si>
+    <t>Trạng thái của phiếu điểm hiệu lực (1) khi đã đánh giá xong, nếu đang bảo dưỡng thì trạng thái là null hoặc 0, đang chấm điểm là 2, đánh giá các cấp thì trạng thái sẽ bật lên để đánh giá, cuối cùng hoàn thành thì ghi là 1 (đánh giá hoàn thành - xem báo cáo hoàn thành)</t>
+  </si>
+  <si>
+    <t>employee_status</t>
+  </si>
+  <si>
+    <t>Trạng thái đánh giá của nhân viên (null chưa đánh giá, 0=không đạt, 1 Đạt, 2 đang thực hiện bảo dưỡng, 3 đang thực hiện chấm điểm,…)</t>
+  </si>
+  <si>
+    <t>employee_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nội dung chi tiết đánh giá của nhân viên ghi chú </t>
+  </si>
+  <si>
+    <t>employee_options</t>
+  </si>
+  <si>
+    <t>Chuỗi tùy chọn chữ ký đánh giá cuối cùng nội dung ở trên (có chữ ký để kiểm tra nội dung không bị ai chỉnh sửa trong csdl)</t>
+  </si>
+  <si>
+    <t>employee_time</t>
+  </si>
+  <si>
+    <t>Thời gian đánh giá cuối cùng của nhân viên</t>
+  </si>
+  <si>
+    <t>total_mark</t>
+  </si>
+  <si>
+    <t>REAL</t>
+  </si>
+  <si>
+    <t>NUMERIC</t>
+  </si>
+  <si>
+    <t>Tổng điểm đánh giá chung của nhân viên (95.3…)</t>
+  </si>
+  <si>
+    <t>mark_options</t>
+  </si>
+  <si>
+    <t>Chuỗi tùy chọn chữ ký đánh giá tổng điểm (tổng hợp từ chi tiết, người đánh giá chi tiết và chữ ký thông tin chi tiết lên số điểm ghi ra ở đây , vị trí, thời gian, user, điểm chi tiết)</t>
+  </si>
+  <si>
+    <t>leader_status</t>
+  </si>
+  <si>
+    <t>employee_username</t>
+  </si>
+  <si>
+    <t>User nhân viên tổng hợp đánh giá này</t>
+  </si>
+  <si>
+    <t>leader_username</t>
+  </si>
+  <si>
+    <t>Tên user của lãnh đạo đánh giá việc này</t>
+  </si>
+  <si>
+    <t>Trạng thái đánh giá của lãnh đạo (null chưa đánh giá, 0=không đạt, 1 Đạt,.. 2, yêu cầu đánh giá lại...)</t>
+  </si>
+  <si>
+    <t>leader_text</t>
+  </si>
+  <si>
+    <t>Lãnh đạo comment ghi chú nội dung nếu có</t>
+  </si>
+  <si>
+    <t>leader_time</t>
+  </si>
+  <si>
+    <t>Thời gian lãnh đạo đánh giá</t>
+  </si>
+  <si>
+    <t>leader_options</t>
+  </si>
+  <si>
+    <t>Chữ ký thông tin đánh giá của lãnh đạo (chỉ có user đó mới đánh giá lại, chỉnh sửa lại thông tin (còn nếu tự ý sửa dữ liệu sẽ không được verify thông tin)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -926,6 +1025,12 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1024,7 +1129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1100,6 +1205,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1439,15 +1547,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F152"/>
+  <dimension ref="A1:F180"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="A153" sqref="A153:XFD167"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.85546875" customWidth="1"/>
     <col min="3" max="3" width="61.85546875" style="19" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
@@ -1477,19 +1585,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>236</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>191</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -1497,13 +1605,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>191</v>
@@ -1515,13 +1623,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>263</v>
-      </c>
       <c r="C4" s="33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>191</v>
@@ -1533,13 +1641,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>191</v>
@@ -1551,13 +1659,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>191</v>
@@ -1569,13 +1677,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>191</v>
@@ -1587,13 +1695,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>191</v>
@@ -1605,13 +1713,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B9" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="C9" s="33" t="s">
         <v>270</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>271</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>191</v>
@@ -1623,7 +1731,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>210</v>
@@ -1641,13 +1749,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>248</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D11" s="32" t="s">
         <v>191</v>
@@ -1659,13 +1767,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>200</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D12" s="32" t="s">
         <v>191</v>
@@ -1677,13 +1785,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>201</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>191</v>
@@ -1695,13 +1803,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B14" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C14" s="33" t="s">
         <v>278</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>279</v>
       </c>
       <c r="D14" s="34" t="s">
         <v>222</v>
@@ -1713,18 +1821,20 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>206</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D15" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="E15" s="31"/>
+      <c r="E15" s="31" t="s">
+        <v>289</v>
+      </c>
       <c r="F15" s="1">
         <v>14</v>
       </c>
@@ -1831,8 +1941,8 @@
       <c r="C21" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>222</v>
+      <c r="D21" s="40" t="s">
+        <v>303</v>
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="1">
@@ -1849,8 +1959,8 @@
       <c r="C22" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>222</v>
+      <c r="D22" s="40" t="s">
+        <v>303</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="1">
@@ -2203,38 +2313,42 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="24"/>
+    <row r="42" spans="1:6" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>260</v>
+      </c>
       <c r="D42" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="E42" s="36"/>
+        <v>222</v>
+      </c>
+      <c r="E42" s="37" t="s">
+        <v>223</v>
+      </c>
       <c r="F42" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>245</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="E43" s="37" t="s">
-        <v>223</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E43" s="38"/>
       <c r="F43" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -2242,17 +2356,17 @@
         <v>245</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="E44" s="38"/>
       <c r="F44" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -2260,17 +2374,17 @@
         <v>245</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>247</v>
+        <v>108</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="E45" s="38"/>
       <c r="F45" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -2278,17 +2392,17 @@
         <v>245</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>191</v>
       </c>
       <c r="E46" s="38"/>
       <c r="F46" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -2296,35 +2410,35 @@
         <v>245</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>252</v>
+        <v>203</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>107</v>
+        <v>253</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="E47" s="38"/>
       <c r="F47" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B48" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>222</v>
+      <c r="B48" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="E48" s="38"/>
       <c r="F48" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -2332,71 +2446,71 @@
         <v>245</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>249</v>
+        <v>200</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>202</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>191</v>
       </c>
       <c r="E49" s="38"/>
       <c r="F49" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>245</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>255</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>191</v>
       </c>
       <c r="E50" s="38"/>
       <c r="F50" s="1">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B51" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="D51" s="8" t="s">
+      <c r="B51" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>191</v>
       </c>
       <c r="E51" s="38"/>
       <c r="F51" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B52" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>191</v>
+      <c r="B52" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>222</v>
       </c>
       <c r="E52" s="38"/>
       <c r="F52" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -2404,7 +2518,7 @@
         <v>245</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C53" s="22" t="s">
         <v>257</v>
@@ -2414,1678 +2528,2039 @@
       </c>
       <c r="E53" s="38"/>
       <c r="F53" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B54" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>222</v>
+      <c r="B54" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="E54" s="38"/>
       <c r="F54" s="1">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>245</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E55" s="38"/>
+        <v>222</v>
+      </c>
+      <c r="E55" s="36" t="s">
+        <v>284</v>
+      </c>
       <c r="F55" s="1">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>259</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>288</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="E56" s="36" t="s">
+      <c r="E56" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="F56" s="29">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="F56" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="1">
-        <v>56</v>
+      <c r="B57" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29">
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="1">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="1">
+      <c r="A58" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+    </row>
+    <row r="59" spans="1:6" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+    </row>
+    <row r="60" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+    </row>
+    <row r="61" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+    </row>
+    <row r="62" spans="1:6" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+    </row>
+    <row r="63" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+    </row>
+    <row r="64" spans="1:6" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C64" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
+    </row>
+    <row r="65" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E65" s="29"/>
+      <c r="F65" s="29"/>
+    </row>
+    <row r="66" spans="1:6" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="C66" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+    </row>
+    <row r="67" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="C67" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="1">
+    <row r="68" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="C68" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+    </row>
+    <row r="69" spans="1:6" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C69" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
+    </row>
+    <row r="70" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C70" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="1">
+    <row r="71" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C71" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="1">
+    <row r="72" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C72" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="1">
+    <row r="73" spans="1:6" s="18" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B73" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="C73" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E73" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="F73" s="29">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+    <row r="74" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="6"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="6"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="6"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="6"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="37"/>
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="6"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="6"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="6"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="37"/>
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="6"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="37"/>
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="6"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="37"/>
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="6"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="6"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="6"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="6"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="37"/>
+      <c r="F86" s="1"/>
+    </row>
+    <row r="87" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="6"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="6"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="6"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="37"/>
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="6"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="37"/>
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="6"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="37"/>
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="6"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="1"/>
+    </row>
+    <row r="93" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B93" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C65" s="26" t="s">
+      <c r="C93" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D93" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="E65" s="37" t="s">
+      <c r="E93" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F93" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
+    <row r="94" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B94" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C66" s="26" t="s">
+      <c r="C94" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D94" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E66" s="36"/>
-      <c r="F66" s="1">
+      <c r="E94" s="36"/>
+      <c r="F94" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:6" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
+    <row r="95" spans="1:6" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B95" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="C67" s="26" t="s">
+      <c r="C95" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D95" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E67" s="36"/>
-      <c r="F67" s="1">
+      <c r="E95" s="36"/>
+      <c r="F95" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
+    <row r="96" spans="1:6" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B96" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C68" s="26" t="s">
+      <c r="C96" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D96" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E68" s="36"/>
-      <c r="F68" s="1">
+      <c r="E96" s="36"/>
+      <c r="F96" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
+    <row r="97" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B97" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C69" s="26" t="s">
+      <c r="C97" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D69" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E69" s="36"/>
-      <c r="F69" s="1">
+      <c r="D97" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E97" s="36"/>
+      <c r="F97" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
+    <row r="98" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B98" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C70" s="26" t="s">
+      <c r="C98" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D70" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E70" s="36"/>
-      <c r="F70" s="1">
+      <c r="D98" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" s="36"/>
+      <c r="F98" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
+    <row r="99" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B99" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C71" s="26" t="s">
+      <c r="C99" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D71" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E71" s="36"/>
-      <c r="F71" s="1">
+      <c r="D99" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E99" s="36"/>
+      <c r="F99" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
+    <row r="100" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B100" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="C72" s="26" t="s">
+      <c r="C100" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D72" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E72" s="36"/>
-      <c r="F72" s="1">
+      <c r="D100" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" s="36"/>
+      <c r="F100" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
+    <row r="101" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B101" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="C73" s="26" t="s">
+      <c r="C101" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D73" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E73" s="36"/>
-      <c r="F73" s="1">
+      <c r="D101" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E101" s="36"/>
+      <c r="F101" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="36"/>
-      <c r="F74" s="1">
+    <row r="102" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="36"/>
+      <c r="F102" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="1">
+    <row r="103" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="36"/>
+      <c r="F103" s="1">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="1">
+    <row r="104" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="36"/>
+      <c r="F104" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="1">
+    <row r="105" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="36"/>
+      <c r="F105" s="1">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="36"/>
-      <c r="F78" s="1">
+    <row r="106" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="4"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="36"/>
+      <c r="F106" s="1">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="1">
+    <row r="107" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="4"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="36"/>
+      <c r="F107" s="1">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="1">
+    <row r="108" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="4"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="36"/>
+      <c r="F108" s="1">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B109" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C81" s="27" t="s">
+      <c r="C109" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D109" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E81" s="27"/>
-      <c r="F81" s="1">
+      <c r="E109" s="27"/>
+      <c r="F109" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B82" s="14" t="s">
+      <c r="B110" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="C82" s="27" t="s">
+      <c r="C110" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D110" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E82" s="27"/>
-      <c r="F82" s="1">
+      <c r="E110" s="27"/>
+      <c r="F110" s="1">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B83" s="14" t="s">
+      <c r="B111" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C83" s="28" t="s">
+      <c r="C111" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E83" s="27"/>
-      <c r="F83" s="1">
+      <c r="D111" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E111" s="27"/>
+      <c r="F111" s="1">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B84" s="14" t="s">
+      <c r="B112" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="C84" s="28" t="s">
+      <c r="C112" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D84" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E84" s="27"/>
-      <c r="F84" s="1">
+      <c r="D112" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E112" s="27"/>
+      <c r="F112" s="1">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="B113" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C85" s="28" t="s">
+      <c r="C113" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D85" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E85" s="27"/>
-      <c r="F85" s="1">
+      <c r="D113" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E113" s="27"/>
+      <c r="F113" s="1">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="B114" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C86" s="24" t="s">
+      <c r="C114" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D114" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E86" s="36"/>
-      <c r="F86" s="1">
+      <c r="E114" s="36"/>
+      <c r="F114" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
+    <row r="115" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B87" s="12" t="s">
+      <c r="B115" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="C87" s="24" t="s">
+      <c r="C115" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D115" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E87" s="36"/>
-      <c r="F87" s="1">
+      <c r="E115" s="36"/>
+      <c r="F115" s="1">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B88" s="12" t="s">
+      <c r="B116" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C88" s="24" t="s">
+      <c r="C116" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="D116" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E88" s="36"/>
-      <c r="F88" s="1">
+      <c r="E116" s="36"/>
+      <c r="F116" s="1">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="B117" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C89" s="24" t="s">
+      <c r="C117" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D89" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E89" s="36"/>
-      <c r="F89" s="1">
+      <c r="D117" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E117" s="36"/>
+      <c r="F117" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B90" s="12" t="s">
+      <c r="B118" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="C90" s="24" t="s">
+      <c r="C118" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D90" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E90" s="36"/>
-      <c r="F90" s="1">
+      <c r="D118" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E118" s="36"/>
+      <c r="F118" s="1">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B91" s="12" t="s">
+      <c r="B119" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="C91" s="24" t="s">
+      <c r="C119" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D91" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E91" s="36"/>
-      <c r="F91" s="1">
+      <c r="D119" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E119" s="36"/>
+      <c r="F119" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="7" t="s">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B120" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C92" s="29" t="s">
+      <c r="C120" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="D120" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E92" s="39"/>
-      <c r="F92" s="1">
+      <c r="E120" s="39"/>
+      <c r="F120" s="1">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="7" t="s">
+    <row r="121" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B121" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C93" s="29" t="s">
+      <c r="C121" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="D121" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E93" s="39"/>
-      <c r="F93" s="1">
+      <c r="E121" s="39"/>
+      <c r="F121" s="1">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="7" t="s">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B122" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C94" s="29" t="s">
+      <c r="C122" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="D122" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E94" s="39"/>
-      <c r="F94" s="1">
+      <c r="E122" s="39"/>
+      <c r="F122" s="1">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="7" t="s">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="B123" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C95" s="29" t="s">
+      <c r="C123" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D95" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E95" s="39"/>
-      <c r="F95" s="1">
+      <c r="D123" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E123" s="39"/>
+      <c r="F123" s="1">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="7" t="s">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B124" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C96" s="29" t="s">
+      <c r="C124" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D96" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E96" s="39"/>
-      <c r="F96" s="1">
+      <c r="D124" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E124" s="39"/>
+      <c r="F124" s="1">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="7" t="s">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B125" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C97" s="29" t="s">
+      <c r="C125" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D97" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E97" s="39"/>
-      <c r="F97" s="1">
+      <c r="D125" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E125" s="39"/>
+      <c r="F125" s="1">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="7" t="s">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="B126" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C98" s="29" t="s">
+      <c r="C126" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D98" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E98" s="39"/>
-      <c r="F98" s="1">
+      <c r="D126" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E126" s="39"/>
+      <c r="F126" s="1">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="6" t="s">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="B127" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="C99" s="26" t="s">
+      <c r="C127" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="D99" s="6" t="s">
+      <c r="D127" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E99" s="30"/>
-      <c r="F99" s="1">
+      <c r="E127" s="30"/>
+      <c r="F127" s="1">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B100" s="11" t="s">
+      <c r="B128" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C100" s="26" t="s">
+      <c r="C128" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="D100" s="6" t="s">
+      <c r="D128" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E100" s="30"/>
-      <c r="F100" s="1">
+      <c r="E128" s="30"/>
+      <c r="F128" s="1">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
+    <row r="129" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B101" s="11" t="s">
+      <c r="B129" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="C101" s="26" t="s">
+      <c r="C129" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="D129" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E101" s="30"/>
-      <c r="F101" s="1">
+      <c r="E129" s="30"/>
+      <c r="F129" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="6" t="s">
+    <row r="130" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="B130" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C102" s="26" t="s">
+      <c r="C130" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D102" s="6" t="s">
+      <c r="D130" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E102" s="30"/>
-      <c r="F102" s="1">
+      <c r="E130" s="30"/>
+      <c r="F130" s="1">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="6" t="s">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="B131" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C103" s="26" t="s">
+      <c r="C131" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D103" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E103" s="30"/>
-      <c r="F103" s="1">
+      <c r="D131" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E131" s="30"/>
+      <c r="F131" s="1">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="6" t="s">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="B132" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C104" s="26" t="s">
+      <c r="C132" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D104" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E104" s="30"/>
-      <c r="F104" s="1">
+      <c r="D132" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E132" s="30"/>
+      <c r="F132" s="1">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="6" t="s">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B105" s="11" t="s">
+      <c r="B133" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C105" s="26" t="s">
+      <c r="C133" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D105" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E105" s="30"/>
-      <c r="F105" s="1">
+      <c r="D133" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E133" s="30"/>
+      <c r="F133" s="1">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="6" t="s">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B106" s="11" t="s">
+      <c r="B134" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="C106" s="26" t="s">
+      <c r="C134" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D106" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E106" s="30"/>
-      <c r="F106" s="1">
+      <c r="D134" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E134" s="30"/>
+      <c r="F134" s="1">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="6" t="s">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B107" s="11" t="s">
+      <c r="B135" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="C107" s="26" t="s">
+      <c r="C135" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D107" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E107" s="30"/>
-      <c r="F107" s="1">
+      <c r="D135" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E135" s="30"/>
+      <c r="F135" s="1">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B108" s="13" t="s">
+      <c r="B136" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="C108" s="25" t="s">
+      <c r="C136" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D136" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E108" s="38"/>
-      <c r="F108" s="1">
+      <c r="E136" s="38"/>
+      <c r="F136" s="1">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B109" s="13" t="s">
+      <c r="B137" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C109" s="25" t="s">
+      <c r="C137" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D137" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E109" s="38"/>
-      <c r="F109" s="1">
+      <c r="E137" s="38"/>
+      <c r="F137" s="1">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B138" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C110" s="25" t="s">
+      <c r="C138" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D138" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E110" s="38"/>
-      <c r="F110" s="1">
+      <c r="E138" s="38"/>
+      <c r="F138" s="1">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B111" s="13" t="s">
+      <c r="B139" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="C111" s="25" t="s">
+      <c r="C139" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="D111" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E111" s="38"/>
-      <c r="F111" s="1">
+      <c r="D139" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E139" s="38"/>
+      <c r="F139" s="1">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B112" s="13" t="s">
+      <c r="B140" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="C112" s="25" t="s">
+      <c r="C140" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D112" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E112" s="38"/>
-      <c r="F112" s="1">
+      <c r="D140" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E140" s="38"/>
+      <c r="F140" s="1">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B113" s="13" t="s">
+      <c r="B141" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="C113" s="25" t="s">
+      <c r="C141" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D113" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E113" s="38"/>
-      <c r="F113" s="1">
+      <c r="D141" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E141" s="38"/>
+      <c r="F141" s="1">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B114" s="13" t="s">
+      <c r="B142" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="C114" s="25" t="s">
+      <c r="C142" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D114" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E114" s="38"/>
-      <c r="F114" s="1">
+      <c r="D142" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E142" s="38"/>
+      <c r="F142" s="1">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B115" s="14" t="s">
+      <c r="B143" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C115" s="28" t="s">
+      <c r="C143" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="D143" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E115" s="27"/>
-      <c r="F115" s="1">
+      <c r="E143" s="27"/>
+      <c r="F143" s="1">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B116" s="14" t="s">
+      <c r="B144" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C116" s="28" t="s">
+      <c r="C144" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="D144" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E116" s="27"/>
-      <c r="F116" s="1">
+      <c r="E144" s="27"/>
+      <c r="F144" s="1">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B117" s="14" t="s">
+      <c r="B145" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="C117" s="28" t="s">
+      <c r="C145" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="D117" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E117" s="27"/>
-      <c r="F117" s="1">
+      <c r="D145" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E145" s="27"/>
+      <c r="F145" s="1">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B118" s="14" t="s">
+      <c r="B146" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="C118" s="28" t="s">
+      <c r="C146" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D118" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E118" s="27"/>
-      <c r="F118" s="1">
+      <c r="D146" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E146" s="27"/>
+      <c r="F146" s="1">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B119" s="14" t="s">
+      <c r="B147" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="C119" s="28" t="s">
+      <c r="C147" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="D147" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E119" s="27"/>
-      <c r="F119" s="1">
+      <c r="E147" s="27"/>
+      <c r="F147" s="1">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B120" s="14" t="s">
+      <c r="B148" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C120" s="28" t="s">
+      <c r="C148" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="D120" s="5" t="s">
+      <c r="D148" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E120" s="27"/>
-      <c r="F120" s="1">
+      <c r="E148" s="27"/>
+      <c r="F148" s="1">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B121" s="14" t="s">
+      <c r="B149" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="C121" s="28" t="s">
+      <c r="C149" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D121" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E121" s="27"/>
-      <c r="F121" s="1">
+      <c r="D149" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E149" s="27"/>
+      <c r="F149" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="8" t="s">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B122" s="15" t="s">
+      <c r="B150" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="C122" s="22" t="s">
+      <c r="C150" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="D122" s="8" t="s">
+      <c r="D150" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E122" s="23"/>
-      <c r="F122" s="1">
+      <c r="E150" s="23"/>
+      <c r="F150" s="1">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="8" t="s">
+    <row r="151" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B123" s="15" t="s">
+      <c r="B151" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C123" s="22" t="s">
+      <c r="C151" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="D123" s="8" t="s">
+      <c r="D151" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E123" s="23"/>
-      <c r="F123" s="1">
+      <c r="E151" s="23"/>
+      <c r="F151" s="1">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="8" t="s">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B124" s="15" t="s">
+      <c r="B152" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="C124" s="22" t="s">
+      <c r="C152" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D124" s="8" t="s">
+      <c r="D152" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E124" s="23"/>
-      <c r="F124" s="1">
+      <c r="E152" s="23"/>
+      <c r="F152" s="1">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="8" t="s">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B125" s="15" t="s">
+      <c r="B153" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="C125" s="22" t="s">
+      <c r="C153" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D125" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E125" s="23"/>
-      <c r="F125" s="1">
+      <c r="D153" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E153" s="23"/>
+      <c r="F153" s="1">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="8" t="s">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B126" s="15" t="s">
+      <c r="B154" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="C126" s="22" t="s">
+      <c r="C154" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D126" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E126" s="23"/>
-      <c r="F126" s="1">
+      <c r="D154" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E154" s="23"/>
+      <c r="F154" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="8" t="s">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B127" s="15" t="s">
+      <c r="B155" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="C127" s="22" t="s">
+      <c r="C155" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D127" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E127" s="23"/>
-      <c r="F127" s="1">
+      <c r="D155" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E155" s="23"/>
+      <c r="F155" s="1">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="4" t="s">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B128" s="12" t="s">
+      <c r="B156" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C128" s="24" t="s">
+      <c r="C156" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="D128" s="4" t="s">
+      <c r="D156" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E128" s="36"/>
-      <c r="F128" s="1">
+      <c r="E156" s="36"/>
+      <c r="F156" s="1">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="4" t="s">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B129" s="12" t="s">
+      <c r="B157" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="C129" s="24" t="s">
+      <c r="C157" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="D129" s="4" t="s">
+      <c r="D157" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E129" s="36"/>
-      <c r="F129" s="1">
+      <c r="E157" s="36"/>
+      <c r="F157" s="1">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="4" t="s">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B130" s="12" t="s">
+      <c r="B158" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C130" s="24" t="s">
+      <c r="C158" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D130" s="4" t="s">
+      <c r="D158" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E130" s="36"/>
-      <c r="F130" s="1">
+      <c r="E158" s="36"/>
+      <c r="F158" s="1">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="4" t="s">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B131" s="12" t="s">
+      <c r="B159" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C131" s="24" t="s">
+      <c r="C159" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D131" s="4" t="s">
+      <c r="D159" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E131" s="36"/>
-      <c r="F131" s="1">
+      <c r="E159" s="36"/>
+      <c r="F159" s="1">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="4" t="s">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B132" s="12" t="s">
+      <c r="B160" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C132" s="24" t="s">
+      <c r="C160" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="D132" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E132" s="36"/>
-      <c r="F132" s="1">
+      <c r="D160" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E160" s="36"/>
+      <c r="F160" s="1">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="4" t="s">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B133" s="12" t="s">
+      <c r="B161" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="C133" s="24" t="s">
+      <c r="C161" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="D133" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E133" s="36"/>
-      <c r="F133" s="1">
+      <c r="D161" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E161" s="36"/>
+      <c r="F161" s="1">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="4" t="s">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B134" s="12" t="s">
+      <c r="B162" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="C134" s="24" t="s">
+      <c r="C162" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D134" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E134" s="36"/>
-      <c r="F134" s="1">
+      <c r="D162" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E162" s="36"/>
+      <c r="F162" s="1">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="4" t="s">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B135" s="12" t="s">
+      <c r="B163" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C135" s="24" t="s">
+      <c r="C163" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="D135" s="4" t="s">
+      <c r="D163" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E135" s="36"/>
-      <c r="F135" s="1">
+      <c r="E163" s="36"/>
+      <c r="F163" s="1">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="4" t="s">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B136" s="12" t="s">
+      <c r="B164" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C136" s="24" t="s">
+      <c r="C164" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D136" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E136" s="36"/>
-      <c r="F136" s="1">
+      <c r="D164" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E164" s="36"/>
+      <c r="F164" s="1">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="s">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B137" s="12" t="s">
+      <c r="B165" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C137" s="24" t="s">
+      <c r="C165" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D137" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E137" s="36"/>
-      <c r="F137" s="1">
+      <c r="D165" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E165" s="36"/>
+      <c r="F165" s="1">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="4" t="s">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B138" s="12" t="s">
+      <c r="B166" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C138" s="24" t="s">
+      <c r="C166" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D138" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E138" s="36"/>
-      <c r="F138" s="1">
+      <c r="D166" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E166" s="36"/>
+      <c r="F166" s="1">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="4" t="s">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B139" s="12" t="s">
+      <c r="B167" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="C139" s="24" t="s">
+      <c r="C167" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D139" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E139" s="36"/>
-      <c r="F139" s="1">
+      <c r="D167" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E167" s="36"/>
+      <c r="F167" s="1">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="4" t="s">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B140" s="12" t="s">
+      <c r="B168" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="C140" s="24" t="s">
+      <c r="C168" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D140" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E140" s="36"/>
-      <c r="F140" s="1">
+      <c r="D168" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E168" s="36"/>
+      <c r="F168" s="1">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="7" t="s">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B141" s="10" t="s">
+      <c r="B169" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C141" s="29" t="s">
+      <c r="C169" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="D141" s="7" t="s">
+      <c r="D169" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E141" s="39"/>
-      <c r="F141" s="1">
+      <c r="E169" s="39"/>
+      <c r="F169" s="1">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="7" t="s">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B142" s="10" t="s">
+      <c r="B170" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C142" s="29" t="s">
+      <c r="C170" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="D142" s="7" t="s">
+      <c r="D170" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E142" s="39"/>
-      <c r="F142" s="1">
+      <c r="E170" s="39"/>
+      <c r="F170" s="1">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="7" t="s">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B143" s="10" t="s">
+      <c r="B171" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C143" s="29" t="s">
+      <c r="C171" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D143" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E143" s="39"/>
-      <c r="F143" s="1">
+      <c r="D171" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E171" s="39"/>
+      <c r="F171" s="1">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A144" s="7" t="s">
+    <row r="172" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A172" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B144" s="10" t="s">
+      <c r="B172" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C144" s="29" t="s">
+      <c r="C172" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="D144" s="7" t="s">
+      <c r="D172" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E144" s="39"/>
-      <c r="F144" s="1">
+      <c r="E172" s="39"/>
+      <c r="F172" s="1">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="7" t="s">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B145" s="10" t="s">
+      <c r="B173" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C145" s="29" t="s">
+      <c r="C173" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="D145" s="7" t="s">
+      <c r="D173" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E145" s="39"/>
-      <c r="F145" s="1">
+      <c r="E173" s="39"/>
+      <c r="F173" s="1">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="7" t="s">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B146" s="10" t="s">
+      <c r="B174" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C146" s="29" t="s">
+      <c r="C174" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="D146" s="7" t="s">
+      <c r="D174" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E146" s="39"/>
-      <c r="F146" s="1">
+      <c r="E174" s="39"/>
+      <c r="F174" s="1">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="7" t="s">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B147" s="10" t="s">
+      <c r="B175" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C147" s="29" t="s">
+      <c r="C175" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="D147" s="7" t="s">
+      <c r="D175" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E147" s="39"/>
-      <c r="F147" s="1">
+      <c r="E175" s="39"/>
+      <c r="F175" s="1">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="7" t="s">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B148" s="10" t="s">
+      <c r="B176" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C148" s="29" t="s">
+      <c r="C176" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="D148" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E148" s="39"/>
-      <c r="F148" s="1">
+      <c r="D176" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E176" s="39"/>
+      <c r="F176" s="1">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="7" t="s">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B149" s="10" t="s">
+      <c r="B177" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C149" s="29" t="s">
+      <c r="C177" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="D149" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E149" s="39"/>
-      <c r="F149" s="1">
+      <c r="D177" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E177" s="39"/>
+      <c r="F177" s="1">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="7" t="s">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B150" s="10" t="s">
+      <c r="B178" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C150" s="29" t="s">
+      <c r="C178" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D150" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E150" s="39"/>
-      <c r="F150" s="1">
+      <c r="D178" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E178" s="39"/>
+      <c r="F178" s="1">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="7" t="s">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B151" s="10" t="s">
+      <c r="B179" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C151" s="29" t="s">
+      <c r="C179" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D151" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E151" s="39"/>
-      <c r="F151" s="1">
+      <c r="D179" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E179" s="39"/>
+      <c r="F179" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="7" t="s">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B152" s="10" t="s">
+      <c r="B180" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C152" s="29" t="s">
+      <c r="C180" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D152" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E152" s="39"/>
-      <c r="F152" s="1">
+      <c r="D180" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E180" s="39"/>
+      <c r="F180" s="1">
         <v>151</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F152" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F180" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6178,25 +6653,25 @@
         <v>236</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>264</v>
-      </c>
       <c r="E1" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>269</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>270</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>210</v>
@@ -6211,7 +6686,7 @@
         <v>201</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N1" s="15" t="s">
         <v>206</v>
@@ -6463,8 +6938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:L1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/db/excel/ql-tram.cuongdq.sqlite.xlsx
+++ b/db/excel/ql-tram.cuongdq.sqlite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IONIC\web.quan-ly-nha-tram\db\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D52956D-93DA-453A-B5BB-1AAB7F8819EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697AA702-22EB-48D0-B1B4-97014010B8C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7410" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="330">
   <si>
     <t>varchar2(100)</t>
   </si>
@@ -992,6 +992,39 @@
   </si>
   <si>
     <t>Chữ ký thông tin đánh giá của lãnh đạo (chỉ có user đó mới đánh giá lại, chỉnh sửa lại thông tin (còn nếu tự ý sửa dữ liệu sẽ không được verify thông tin)</t>
+  </si>
+  <si>
+    <t>parent_id</t>
+  </si>
+  <si>
+    <t>tree_id</t>
+  </si>
+  <si>
+    <t>tree_level</t>
+  </si>
+  <si>
+    <t>tree_key</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>root_id</t>
   </si>
 </sst>
 </file>
@@ -1033,7 +1066,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1088,6 +1121,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1129,7 +1186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1150,6 +1207,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1194,6 +1252,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1206,9 +1265,42 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1549,7 +1641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
@@ -1557,9 +1649,9 @@
   <cols>
     <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.85546875" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" style="20" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="41.85546875" style="20" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1570,13 +1662,13 @@
       <c r="B1" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>187</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="22" t="s">
         <v>189</v>
       </c>
       <c r="F1" s="17" t="s">
@@ -1584,19 +1676,19 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>265</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>283</v>
       </c>
       <c r="F2" s="1">
@@ -1604,235 +1696,235 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="34" t="s">
         <v>276</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E3" s="31"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="34" t="s">
         <v>275</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="34" t="s">
         <v>274</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E5" s="31"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="34" t="s">
         <v>273</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E6" s="31"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="34" t="s">
         <v>272</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E7" s="31"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="34" t="s">
         <v>271</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E8" s="31"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="34" t="s">
         <v>270</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E9" s="31"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="33" t="s">
         <v>261</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="E10" s="31"/>
+      <c r="E10" s="32"/>
       <c r="F10" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="33" t="s">
         <v>261</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="34" t="s">
         <v>282</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="E11" s="31"/>
+      <c r="E11" s="32"/>
       <c r="F11" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="33" t="s">
         <v>261</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="34" t="s">
         <v>281</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="E12" s="31"/>
+      <c r="E12" s="32"/>
       <c r="F12" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="33" t="s">
         <v>261</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="34" t="s">
         <v>280</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="E13" s="31"/>
+      <c r="E13" s="32"/>
       <c r="F13" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="33" t="s">
         <v>261</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="34" t="s">
         <v>278</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="E14" s="31"/>
+      <c r="E14" s="32"/>
       <c r="F14" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="33" t="s">
         <v>261</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="34" t="s">
         <v>279</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="32" t="s">
         <v>289</v>
       </c>
       <c r="F15" s="1">
@@ -1846,13 +1938,13 @@
       <c r="B16" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="39" t="s">
         <v>223</v>
       </c>
       <c r="F16" s="1">
@@ -1866,13 +1958,13 @@
       <c r="B17" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="23" t="s">
         <v>221</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="E17" s="23"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="1">
         <v>16</v>
       </c>
@@ -1884,13 +1976,13 @@
       <c r="B18" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="23" t="s">
         <v>229</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E18" s="23"/>
+      <c r="E18" s="24"/>
       <c r="F18" s="1">
         <v>17</v>
       </c>
@@ -1902,13 +1994,13 @@
       <c r="B19" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="23" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E19" s="23"/>
+      <c r="E19" s="24"/>
       <c r="F19" s="1">
         <v>18</v>
       </c>
@@ -1920,13 +2012,13 @@
       <c r="B20" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="23" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E20" s="23"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="1">
         <v>19</v>
       </c>
@@ -1938,13 +2030,13 @@
       <c r="B21" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="44" t="s">
         <v>303</v>
       </c>
-      <c r="E21" s="23"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="1">
         <v>20</v>
       </c>
@@ -1956,13 +2048,13 @@
       <c r="B22" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="44" t="s">
         <v>303</v>
       </c>
-      <c r="E22" s="23"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="1">
         <v>21</v>
       </c>
@@ -1974,13 +2066,13 @@
       <c r="B23" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="23" t="s">
         <v>209</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E23" s="23"/>
+      <c r="E23" s="24"/>
       <c r="F23" s="1">
         <v>22</v>
       </c>
@@ -1992,13 +2084,13 @@
       <c r="B24" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="23" t="s">
         <v>208</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E24" s="23"/>
+      <c r="E24" s="24"/>
       <c r="F24" s="1">
         <v>23</v>
       </c>
@@ -2010,13 +2102,13 @@
       <c r="B25" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="23" t="s">
         <v>215</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E25" s="23"/>
+      <c r="E25" s="24"/>
       <c r="F25" s="1">
         <v>24</v>
       </c>
@@ -2028,13 +2120,13 @@
       <c r="B26" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="23" t="s">
         <v>214</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="E26" s="23"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="1">
         <v>25</v>
       </c>
@@ -2046,13 +2138,13 @@
       <c r="B27" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="23" t="s">
         <v>213</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="E27" s="23"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="1">
         <v>26</v>
       </c>
@@ -2064,13 +2156,13 @@
       <c r="B28" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="23" t="s">
         <v>249</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E28" s="23"/>
+      <c r="E28" s="24"/>
       <c r="F28" s="1">
         <v>27</v>
       </c>
@@ -2082,13 +2174,13 @@
       <c r="B29" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="24" t="s">
         <v>202</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E29" s="23"/>
+      <c r="E29" s="24"/>
       <c r="F29" s="1">
         <v>28</v>
       </c>
@@ -2100,13 +2192,13 @@
       <c r="B30" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="23" t="s">
         <v>250</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E30" s="23"/>
+      <c r="E30" s="24"/>
       <c r="F30" s="1">
         <v>29</v>
       </c>
@@ -2118,13 +2210,13 @@
       <c r="B31" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="23" t="s">
         <v>224</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E31" s="23"/>
+      <c r="E31" s="24"/>
       <c r="F31" s="1">
         <v>30</v>
       </c>
@@ -2136,13 +2228,13 @@
       <c r="B32" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="23" t="s">
         <v>225</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E32" s="23"/>
+      <c r="E32" s="24"/>
       <c r="F32" s="1">
         <v>31</v>
       </c>
@@ -2154,13 +2246,13 @@
       <c r="B33" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="23" t="s">
         <v>4</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="E33" s="23"/>
+      <c r="E33" s="24"/>
       <c r="F33" s="1">
         <v>32</v>
       </c>
@@ -2172,13 +2264,13 @@
       <c r="B34" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="23" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="E34" s="23"/>
+      <c r="E34" s="24"/>
       <c r="F34" s="1">
         <v>33</v>
       </c>
@@ -2190,13 +2282,13 @@
       <c r="B35" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="23" t="s">
         <v>226</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="E35" s="23"/>
+      <c r="E35" s="24"/>
       <c r="F35" s="1">
         <v>34</v>
       </c>
@@ -2208,1055 +2300,1055 @@
       <c r="B36" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="23" t="s">
         <v>207</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="24" t="s">
         <v>228</v>
       </c>
       <c r="F36" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>227</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="25" t="s">
         <v>234</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="E37" s="37"/>
+      <c r="E37" s="39"/>
       <c r="F37" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>227</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="25" t="s">
         <v>232</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="E38" s="36"/>
+      <c r="E38" s="38"/>
       <c r="F38" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>227</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="25" t="s">
         <v>235</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E39" s="36"/>
+      <c r="E39" s="38"/>
       <c r="F39" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>227</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="25" t="s">
         <v>237</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E40" s="36"/>
+      <c r="E40" s="38"/>
       <c r="F40" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>227</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="25" t="s">
         <v>240</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E41" s="36" t="s">
+      <c r="E41" s="38" t="s">
         <v>238</v>
       </c>
       <c r="F41" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>245</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="26" t="s">
         <v>260</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="E42" s="37" t="s">
+      <c r="E42" s="39" t="s">
         <v>223</v>
       </c>
       <c r="F42" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>245</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="26" t="s">
         <v>246</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E43" s="38"/>
+      <c r="E43" s="40"/>
       <c r="F43" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>245</v>
       </c>
       <c r="B44" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="26" t="s">
         <v>247</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="E44" s="38"/>
+      <c r="E44" s="40"/>
       <c r="F44" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>245</v>
       </c>
       <c r="B45" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="26" t="s">
         <v>108</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E45" s="38"/>
+      <c r="E45" s="40"/>
       <c r="F45" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>245</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="26" t="s">
         <v>107</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E46" s="38"/>
+      <c r="E46" s="40"/>
       <c r="F46" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>245</v>
       </c>
       <c r="B47" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="26" t="s">
         <v>253</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="E47" s="38"/>
+      <c r="E47" s="40"/>
       <c r="F47" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>245</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="23" t="s">
         <v>249</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E48" s="38"/>
+      <c r="E48" s="40"/>
       <c r="F48" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>245</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="C49" s="24" t="s">
         <v>202</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E49" s="38"/>
+      <c r="E49" s="40"/>
       <c r="F49" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>245</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="23" t="s">
         <v>255</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E50" s="38"/>
+      <c r="E50" s="40"/>
       <c r="F50" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>245</v>
       </c>
       <c r="B51" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="26" t="s">
         <v>290</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E51" s="38"/>
+      <c r="E51" s="40"/>
       <c r="F51" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>245</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="23" t="s">
         <v>256</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="E52" s="38"/>
+      <c r="E52" s="40"/>
       <c r="F52" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>245</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="23" t="s">
         <v>257</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="E53" s="38"/>
+      <c r="E53" s="40"/>
       <c r="F53" s="1">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>245</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="26" t="s">
         <v>259</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E54" s="38"/>
+      <c r="E54" s="40"/>
       <c r="F54" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>245</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="C55" s="25" t="s">
+      <c r="C55" s="26" t="s">
         <v>258</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="E55" s="36" t="s">
+      <c r="E55" s="38" t="s">
         <v>284</v>
       </c>
       <c r="F55" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>285</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="C56" s="29" t="s">
+      <c r="C56" s="30" t="s">
         <v>288</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="E56" s="29" t="s">
+      <c r="E56" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="F56" s="29">
+      <c r="F56" s="30">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>285</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C57" s="29" t="s">
+      <c r="C57" s="30" t="s">
         <v>287</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29">
+      <c r="E57" s="30"/>
+      <c r="F57" s="30">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>285</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="C58" s="29" t="s">
+      <c r="C58" s="30" t="s">
         <v>309</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-    </row>
-    <row r="59" spans="1:6" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+    </row>
+    <row r="59" spans="1:6" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>285</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="C59" s="29" t="s">
+      <c r="C59" s="30" t="s">
         <v>294</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-    </row>
-    <row r="60" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+    </row>
+    <row r="60" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>285</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="C60" s="29" t="s">
+      <c r="C60" s="30" t="s">
         <v>296</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-    </row>
-    <row r="61" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+    </row>
+    <row r="61" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>285</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="C61" s="29" t="s">
+      <c r="C61" s="30" t="s">
         <v>300</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-    </row>
-    <row r="62" spans="1:6" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+    </row>
+    <row r="62" spans="1:6" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>285</v>
       </c>
       <c r="B62" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="C62" s="29" t="s">
+      <c r="C62" s="30" t="s">
         <v>298</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-    </row>
-    <row r="63" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+    </row>
+    <row r="63" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>285</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="C63" s="29" t="s">
+      <c r="C63" s="30" t="s">
         <v>304</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
-    </row>
-    <row r="64" spans="1:6" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+    </row>
+    <row r="64" spans="1:6" s="19" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>285</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="C64" s="29" t="s">
+      <c r="C64" s="30" t="s">
         <v>306</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
-    </row>
-    <row r="65" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+    </row>
+    <row r="65" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>285</v>
       </c>
       <c r="B65" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="C65" s="29" t="s">
+      <c r="C65" s="30" t="s">
         <v>311</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="E65" s="29"/>
-      <c r="F65" s="29"/>
-    </row>
-    <row r="66" spans="1:6" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+    </row>
+    <row r="66" spans="1:6" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>285</v>
       </c>
       <c r="B66" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="C66" s="29" t="s">
+      <c r="C66" s="30" t="s">
         <v>312</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-    </row>
-    <row r="67" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+    </row>
+    <row r="67" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>285</v>
       </c>
       <c r="B67" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="C67" s="29" t="s">
+      <c r="C67" s="30" t="s">
         <v>314</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29">
+      <c r="E67" s="30"/>
+      <c r="F67" s="30">
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>285</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="C68" s="29" t="s">
+      <c r="C68" s="30" t="s">
         <v>316</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E68" s="29"/>
-      <c r="F68" s="29"/>
-    </row>
-    <row r="69" spans="1:6" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
+    </row>
+    <row r="69" spans="1:6" s="19" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>285</v>
       </c>
       <c r="B69" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="C69" s="29" t="s">
+      <c r="C69" s="30" t="s">
         <v>318</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="E69" s="29"/>
-      <c r="F69" s="29"/>
-    </row>
-    <row r="70" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E69" s="30"/>
+      <c r="F69" s="30"/>
+    </row>
+    <row r="70" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>285</v>
       </c>
       <c r="B70" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C70" s="29" t="s">
+      <c r="C70" s="30" t="s">
         <v>4</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29">
+      <c r="E70" s="30"/>
+      <c r="F70" s="30">
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>285</v>
       </c>
       <c r="B71" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="C71" s="29" t="s">
+      <c r="C71" s="30" t="s">
         <v>5</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E71" s="29"/>
-      <c r="F71" s="29">
+      <c r="E71" s="30"/>
+      <c r="F71" s="30">
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>285</v>
       </c>
       <c r="B72" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C72" s="29" t="s">
+      <c r="C72" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E72" s="29"/>
-      <c r="F72" s="29">
+      <c r="E72" s="30"/>
+      <c r="F72" s="30">
         <v>62</v>
       </c>
     </row>
-    <row r="73" spans="1:6" s="18" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" s="19" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B73" s="29" t="s">
+      <c r="B73" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="C73" s="29" t="s">
+      <c r="C73" s="30" t="s">
         <v>292</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E73" s="29" t="s">
+      <c r="E73" s="30" t="s">
         <v>291</v>
       </c>
-      <c r="F73" s="29">
+      <c r="F73" s="30">
         <v>63</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="11"/>
-      <c r="C74" s="26"/>
+      <c r="C74" s="27"/>
       <c r="D74" s="8"/>
-      <c r="E74" s="37"/>
+      <c r="E74" s="39"/>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="11"/>
-      <c r="C75" s="26"/>
+      <c r="C75" s="27"/>
       <c r="D75" s="8"/>
-      <c r="E75" s="37"/>
+      <c r="E75" s="39"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="11"/>
-      <c r="C76" s="26"/>
+      <c r="C76" s="27"/>
       <c r="D76" s="8"/>
-      <c r="E76" s="37"/>
+      <c r="E76" s="39"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="11"/>
-      <c r="C77" s="26"/>
+      <c r="C77" s="27"/>
       <c r="D77" s="8"/>
-      <c r="E77" s="37"/>
+      <c r="E77" s="39"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="11"/>
-      <c r="C78" s="26"/>
+      <c r="C78" s="27"/>
       <c r="D78" s="8"/>
-      <c r="E78" s="37"/>
+      <c r="E78" s="39"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="11"/>
-      <c r="C79" s="26"/>
+      <c r="C79" s="27"/>
       <c r="D79" s="8"/>
-      <c r="E79" s="37"/>
+      <c r="E79" s="39"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="11"/>
-      <c r="C80" s="26"/>
+      <c r="C80" s="27"/>
       <c r="D80" s="8"/>
-      <c r="E80" s="37"/>
+      <c r="E80" s="39"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="11"/>
-      <c r="C81" s="26"/>
+      <c r="C81" s="27"/>
       <c r="D81" s="8"/>
-      <c r="E81" s="37"/>
+      <c r="E81" s="39"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="11"/>
-      <c r="C82" s="26"/>
+      <c r="C82" s="27"/>
       <c r="D82" s="8"/>
-      <c r="E82" s="37"/>
+      <c r="E82" s="39"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="11"/>
-      <c r="C83" s="26"/>
+      <c r="C83" s="27"/>
       <c r="D83" s="8"/>
-      <c r="E83" s="37"/>
+      <c r="E83" s="39"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="11"/>
-      <c r="C84" s="26"/>
+      <c r="C84" s="27"/>
       <c r="D84" s="8"/>
-      <c r="E84" s="37"/>
+      <c r="E84" s="39"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="11"/>
-      <c r="C85" s="26"/>
+      <c r="C85" s="27"/>
       <c r="D85" s="8"/>
-      <c r="E85" s="37"/>
+      <c r="E85" s="39"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="11"/>
-      <c r="C86" s="26"/>
+      <c r="C86" s="27"/>
       <c r="D86" s="8"/>
-      <c r="E86" s="37"/>
+      <c r="E86" s="39"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="11"/>
-      <c r="C87" s="26"/>
+      <c r="C87" s="27"/>
       <c r="D87" s="8"/>
-      <c r="E87" s="37"/>
+      <c r="E87" s="39"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="11"/>
-      <c r="C88" s="26"/>
+      <c r="C88" s="27"/>
       <c r="D88" s="8"/>
-      <c r="E88" s="37"/>
+      <c r="E88" s="39"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="11"/>
-      <c r="C89" s="26"/>
+      <c r="C89" s="27"/>
       <c r="D89" s="8"/>
-      <c r="E89" s="37"/>
+      <c r="E89" s="39"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="11"/>
-      <c r="C90" s="26"/>
+      <c r="C90" s="27"/>
       <c r="D90" s="8"/>
-      <c r="E90" s="37"/>
+      <c r="E90" s="39"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="11"/>
-      <c r="C91" s="26"/>
+      <c r="C91" s="27"/>
       <c r="D91" s="8"/>
-      <c r="E91" s="37"/>
+      <c r="E91" s="39"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="11"/>
-      <c r="C92" s="26"/>
+      <c r="C92" s="27"/>
       <c r="D92" s="8"/>
-      <c r="E92" s="37"/>
+      <c r="E92" s="39"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>244</v>
       </c>
       <c r="B93" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C93" s="26" t="s">
+      <c r="C93" s="27" t="s">
         <v>84</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="E93" s="37" t="s">
+      <c r="E93" s="39" t="s">
         <v>223</v>
       </c>
       <c r="F93" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>244</v>
       </c>
       <c r="B94" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C94" s="26" t="s">
+      <c r="C94" s="27" t="s">
         <v>85</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E94" s="36"/>
+      <c r="E94" s="38"/>
       <c r="F94" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="95" spans="1:6" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>244</v>
       </c>
       <c r="B95" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="C95" s="26" t="s">
+      <c r="C95" s="27" t="s">
         <v>86</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E95" s="36"/>
+      <c r="E95" s="38"/>
       <c r="F95" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="96" spans="1:6" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>244</v>
       </c>
       <c r="B96" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C96" s="26" t="s">
+      <c r="C96" s="27" t="s">
         <v>87</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E96" s="36"/>
+      <c r="E96" s="38"/>
       <c r="F96" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="97" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>244</v>
       </c>
       <c r="B97" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C97" s="26" t="s">
+      <c r="C97" s="27" t="s">
         <v>28</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E97" s="36"/>
+      <c r="E97" s="38"/>
       <c r="F97" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="98" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>244</v>
       </c>
       <c r="B98" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C98" s="26" t="s">
+      <c r="C98" s="27" t="s">
         <v>29</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E98" s="36"/>
+      <c r="E98" s="38"/>
       <c r="F98" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="99" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>244</v>
       </c>
       <c r="B99" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C99" s="26" t="s">
+      <c r="C99" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E99" s="36"/>
+      <c r="E99" s="38"/>
       <c r="F99" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>244</v>
       </c>
       <c r="B100" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="C100" s="26" t="s">
+      <c r="C100" s="27" t="s">
         <v>5</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E100" s="36"/>
+      <c r="E100" s="38"/>
       <c r="F100" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>244</v>
       </c>
       <c r="B101" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="C101" s="26" t="s">
+      <c r="C101" s="27" t="s">
         <v>6</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E101" s="36"/>
+      <c r="E101" s="38"/>
       <c r="F101" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="12"/>
-      <c r="C102" s="24"/>
+      <c r="C102" s="25"/>
       <c r="D102" s="8"/>
-      <c r="E102" s="36"/>
+      <c r="E102" s="38"/>
       <c r="F102" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="12"/>
-      <c r="C103" s="24"/>
+      <c r="C103" s="25"/>
       <c r="D103" s="8"/>
-      <c r="E103" s="36"/>
+      <c r="E103" s="38"/>
       <c r="F103" s="1">
         <v>74</v>
       </c>
     </row>
-    <row r="104" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="12"/>
-      <c r="C104" s="24"/>
+      <c r="C104" s="25"/>
       <c r="D104" s="8"/>
-      <c r="E104" s="36"/>
+      <c r="E104" s="38"/>
       <c r="F104" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="12"/>
-      <c r="C105" s="24"/>
+      <c r="C105" s="25"/>
       <c r="D105" s="8"/>
-      <c r="E105" s="36"/>
+      <c r="E105" s="38"/>
       <c r="F105" s="1">
         <v>76</v>
       </c>
     </row>
-    <row r="106" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="12"/>
-      <c r="C106" s="24"/>
+      <c r="C106" s="25"/>
       <c r="D106" s="8"/>
-      <c r="E106" s="36"/>
+      <c r="E106" s="38"/>
       <c r="F106" s="1">
         <v>77</v>
       </c>
     </row>
-    <row r="107" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="12"/>
-      <c r="C107" s="24"/>
+      <c r="C107" s="25"/>
       <c r="D107" s="8"/>
-      <c r="E107" s="36"/>
+      <c r="E107" s="38"/>
       <c r="F107" s="1">
         <v>78</v>
       </c>
     </row>
-    <row r="108" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="12"/>
-      <c r="C108" s="24"/>
+      <c r="C108" s="25"/>
       <c r="D108" s="8"/>
-      <c r="E108" s="36"/>
+      <c r="E108" s="38"/>
       <c r="F108" s="1">
         <v>79</v>
       </c>
@@ -3268,13 +3360,13 @@
       <c r="B109" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C109" s="27" t="s">
+      <c r="C109" s="28" t="s">
         <v>20</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E109" s="27"/>
+      <c r="E109" s="28"/>
       <c r="F109" s="1">
         <v>80</v>
       </c>
@@ -3286,13 +3378,13 @@
       <c r="B110" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="C110" s="27" t="s">
+      <c r="C110" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E110" s="27"/>
+      <c r="E110" s="28"/>
       <c r="F110" s="1">
         <v>81</v>
       </c>
@@ -3304,13 +3396,13 @@
       <c r="B111" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C111" s="28" t="s">
+      <c r="C111" s="29" t="s">
         <v>4</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E111" s="27"/>
+      <c r="E111" s="28"/>
       <c r="F111" s="1">
         <v>82</v>
       </c>
@@ -3322,13 +3414,13 @@
       <c r="B112" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="C112" s="28" t="s">
+      <c r="C112" s="29" t="s">
         <v>5</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E112" s="27"/>
+      <c r="E112" s="28"/>
       <c r="F112" s="1">
         <v>83</v>
       </c>
@@ -3340,13 +3432,13 @@
       <c r="B113" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C113" s="28" t="s">
+      <c r="C113" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E113" s="27"/>
+      <c r="E113" s="28"/>
       <c r="F113" s="1">
         <v>84</v>
       </c>
@@ -3358,13 +3450,13 @@
       <c r="B114" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C114" s="24" t="s">
+      <c r="C114" s="25" t="s">
         <v>50</v>
       </c>
       <c r="D114" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E114" s="36"/>
+      <c r="E114" s="38"/>
       <c r="F114" s="1">
         <v>85</v>
       </c>
@@ -3376,13 +3468,13 @@
       <c r="B115" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="C115" s="24" t="s">
+      <c r="C115" s="25" t="s">
         <v>51</v>
       </c>
       <c r="D115" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E115" s="36"/>
+      <c r="E115" s="38"/>
       <c r="F115" s="1">
         <v>86</v>
       </c>
@@ -3394,13 +3486,13 @@
       <c r="B116" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C116" s="24" t="s">
+      <c r="C116" s="25" t="s">
         <v>52</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E116" s="36"/>
+      <c r="E116" s="38"/>
       <c r="F116" s="1">
         <v>87</v>
       </c>
@@ -3412,13 +3504,13 @@
       <c r="B117" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C117" s="24" t="s">
+      <c r="C117" s="25" t="s">
         <v>4</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E117" s="36"/>
+      <c r="E117" s="38"/>
       <c r="F117" s="1">
         <v>88</v>
       </c>
@@ -3430,13 +3522,13 @@
       <c r="B118" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="C118" s="24" t="s">
+      <c r="C118" s="25" t="s">
         <v>5</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E118" s="36"/>
+      <c r="E118" s="38"/>
       <c r="F118" s="1">
         <v>89</v>
       </c>
@@ -3448,13 +3540,13 @@
       <c r="B119" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="C119" s="24" t="s">
+      <c r="C119" s="25" t="s">
         <v>6</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E119" s="36"/>
+      <c r="E119" s="38"/>
       <c r="F119" s="1">
         <v>90</v>
       </c>
@@ -3466,13 +3558,13 @@
       <c r="B120" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C120" s="29" t="s">
+      <c r="C120" s="30" t="s">
         <v>77</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E120" s="39"/>
+      <c r="E120" s="41"/>
       <c r="F120" s="1">
         <v>91</v>
       </c>
@@ -3484,13 +3576,13 @@
       <c r="B121" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C121" s="29" t="s">
+      <c r="C121" s="30" t="s">
         <v>78</v>
       </c>
       <c r="D121" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E121" s="39"/>
+      <c r="E121" s="41"/>
       <c r="F121" s="1">
         <v>92</v>
       </c>
@@ -3502,13 +3594,13 @@
       <c r="B122" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C122" s="29" t="s">
+      <c r="C122" s="30" t="s">
         <v>79</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E122" s="39"/>
+      <c r="E122" s="41"/>
       <c r="F122" s="1">
         <v>93</v>
       </c>
@@ -3520,13 +3612,13 @@
       <c r="B123" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C123" s="29" t="s">
+      <c r="C123" s="30" t="s">
         <v>80</v>
       </c>
       <c r="D123" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E123" s="39"/>
+      <c r="E123" s="41"/>
       <c r="F123" s="1">
         <v>94</v>
       </c>
@@ -3538,13 +3630,13 @@
       <c r="B124" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C124" s="29" t="s">
+      <c r="C124" s="30" t="s">
         <v>4</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E124" s="39"/>
+      <c r="E124" s="41"/>
       <c r="F124" s="1">
         <v>95</v>
       </c>
@@ -3556,13 +3648,13 @@
       <c r="B125" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C125" s="29" t="s">
+      <c r="C125" s="30" t="s">
         <v>5</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E125" s="39"/>
+      <c r="E125" s="41"/>
       <c r="F125" s="1">
         <v>96</v>
       </c>
@@ -3574,13 +3666,13 @@
       <c r="B126" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C126" s="29" t="s">
+      <c r="C126" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E126" s="39"/>
+      <c r="E126" s="41"/>
       <c r="F126" s="1">
         <v>97</v>
       </c>
@@ -3592,13 +3684,13 @@
       <c r="B127" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="C127" s="26" t="s">
+      <c r="C127" s="27" t="s">
         <v>84</v>
       </c>
       <c r="D127" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E127" s="30"/>
+      <c r="E127" s="31"/>
       <c r="F127" s="1">
         <v>98</v>
       </c>
@@ -3610,13 +3702,13 @@
       <c r="B128" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C128" s="26" t="s">
+      <c r="C128" s="27" t="s">
         <v>85</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E128" s="30"/>
+      <c r="E128" s="31"/>
       <c r="F128" s="1">
         <v>99</v>
       </c>
@@ -3628,13 +3720,13 @@
       <c r="B129" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="C129" s="26" t="s">
+      <c r="C129" s="27" t="s">
         <v>86</v>
       </c>
       <c r="D129" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E129" s="30"/>
+      <c r="E129" s="31"/>
       <c r="F129" s="1">
         <v>100</v>
       </c>
@@ -3646,13 +3738,13 @@
       <c r="B130" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C130" s="26" t="s">
+      <c r="C130" s="27" t="s">
         <v>87</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E130" s="30"/>
+      <c r="E130" s="31"/>
       <c r="F130" s="1">
         <v>101</v>
       </c>
@@ -3664,13 +3756,13 @@
       <c r="B131" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C131" s="26" t="s">
+      <c r="C131" s="27" t="s">
         <v>28</v>
       </c>
       <c r="D131" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E131" s="30"/>
+      <c r="E131" s="31"/>
       <c r="F131" s="1">
         <v>102</v>
       </c>
@@ -3682,13 +3774,13 @@
       <c r="B132" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C132" s="26" t="s">
+      <c r="C132" s="27" t="s">
         <v>29</v>
       </c>
       <c r="D132" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E132" s="30"/>
+      <c r="E132" s="31"/>
       <c r="F132" s="1">
         <v>103</v>
       </c>
@@ -3700,13 +3792,13 @@
       <c r="B133" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C133" s="26" t="s">
+      <c r="C133" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E133" s="30"/>
+      <c r="E133" s="31"/>
       <c r="F133" s="1">
         <v>104</v>
       </c>
@@ -3718,13 +3810,13 @@
       <c r="B134" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="C134" s="26" t="s">
+      <c r="C134" s="27" t="s">
         <v>5</v>
       </c>
       <c r="D134" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E134" s="30"/>
+      <c r="E134" s="31"/>
       <c r="F134" s="1">
         <v>105</v>
       </c>
@@ -3736,13 +3828,13 @@
       <c r="B135" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="C135" s="26" t="s">
+      <c r="C135" s="27" t="s">
         <v>6</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E135" s="30"/>
+      <c r="E135" s="31"/>
       <c r="F135" s="1">
         <v>106</v>
       </c>
@@ -3754,13 +3846,13 @@
       <c r="B136" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="C136" s="25" t="s">
+      <c r="C136" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E136" s="38"/>
+      <c r="E136" s="40"/>
       <c r="F136" s="1">
         <v>107</v>
       </c>
@@ -3772,13 +3864,13 @@
       <c r="B137" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C137" s="25" t="s">
+      <c r="C137" s="26" t="s">
         <v>84</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E137" s="38"/>
+      <c r="E137" s="40"/>
       <c r="F137" s="1">
         <v>108</v>
       </c>
@@ -3790,13 +3882,13 @@
       <c r="B138" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C138" s="25" t="s">
+      <c r="C138" s="26" t="s">
         <v>85</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E138" s="38"/>
+      <c r="E138" s="40"/>
       <c r="F138" s="1">
         <v>109</v>
       </c>
@@ -3808,13 +3900,13 @@
       <c r="B139" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="C139" s="25" t="s">
+      <c r="C139" s="26" t="s">
         <v>89</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E139" s="38"/>
+      <c r="E139" s="40"/>
       <c r="F139" s="1">
         <v>110</v>
       </c>
@@ -3826,13 +3918,13 @@
       <c r="B140" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="C140" s="25" t="s">
+      <c r="C140" s="26" t="s">
         <v>4</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E140" s="38"/>
+      <c r="E140" s="40"/>
       <c r="F140" s="1">
         <v>111</v>
       </c>
@@ -3844,13 +3936,13 @@
       <c r="B141" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="C141" s="25" t="s">
+      <c r="C141" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E141" s="38"/>
+      <c r="E141" s="40"/>
       <c r="F141" s="1">
         <v>112</v>
       </c>
@@ -3862,13 +3954,13 @@
       <c r="B142" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="C142" s="25" t="s">
+      <c r="C142" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E142" s="38"/>
+      <c r="E142" s="40"/>
       <c r="F142" s="1">
         <v>113</v>
       </c>
@@ -3880,13 +3972,13 @@
       <c r="B143" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C143" s="28" t="s">
+      <c r="C143" s="29" t="s">
         <v>106</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E143" s="27"/>
+      <c r="E143" s="28"/>
       <c r="F143" s="1">
         <v>114</v>
       </c>
@@ -3898,13 +3990,13 @@
       <c r="B144" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C144" s="28" t="s">
+      <c r="C144" s="29" t="s">
         <v>25</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E144" s="27"/>
+      <c r="E144" s="28"/>
       <c r="F144" s="1">
         <v>115</v>
       </c>
@@ -3916,13 +4008,13 @@
       <c r="B145" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="C145" s="28" t="s">
+      <c r="C145" s="29" t="s">
         <v>107</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E145" s="27"/>
+      <c r="E145" s="28"/>
       <c r="F145" s="1">
         <v>116</v>
       </c>
@@ -3934,13 +4026,13 @@
       <c r="B146" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="C146" s="28" t="s">
+      <c r="C146" s="29" t="s">
         <v>108</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E146" s="27"/>
+      <c r="E146" s="28"/>
       <c r="F146" s="1">
         <v>117</v>
       </c>
@@ -3952,13 +4044,13 @@
       <c r="B147" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="C147" s="28" t="s">
+      <c r="C147" s="29" t="s">
         <v>109</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E147" s="27"/>
+      <c r="E147" s="28"/>
       <c r="F147" s="1">
         <v>118</v>
       </c>
@@ -3970,13 +4062,13 @@
       <c r="B148" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C148" s="28" t="s">
+      <c r="C148" s="29" t="s">
         <v>110</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E148" s="27"/>
+      <c r="E148" s="28"/>
       <c r="F148" s="1">
         <v>119</v>
       </c>
@@ -3988,13 +4080,13 @@
       <c r="B149" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="C149" s="28" t="s">
+      <c r="C149" s="29" t="s">
         <v>5</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E149" s="27"/>
+      <c r="E149" s="28"/>
       <c r="F149" s="1">
         <v>120</v>
       </c>
@@ -4006,13 +4098,13 @@
       <c r="B150" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="C150" s="22" t="s">
+      <c r="C150" s="23" t="s">
         <v>133</v>
       </c>
       <c r="D150" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E150" s="23"/>
+      <c r="E150" s="24"/>
       <c r="F150" s="1">
         <v>121</v>
       </c>
@@ -4024,13 +4116,13 @@
       <c r="B151" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C151" s="22" t="s">
+      <c r="C151" s="23" t="s">
         <v>134</v>
       </c>
       <c r="D151" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E151" s="23"/>
+      <c r="E151" s="24"/>
       <c r="F151" s="1">
         <v>122</v>
       </c>
@@ -4042,13 +4134,13 @@
       <c r="B152" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="C152" s="22" t="s">
+      <c r="C152" s="23" t="s">
         <v>79</v>
       </c>
       <c r="D152" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E152" s="23"/>
+      <c r="E152" s="24"/>
       <c r="F152" s="1">
         <v>123</v>
       </c>
@@ -4060,13 +4152,13 @@
       <c r="B153" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="C153" s="22" t="s">
+      <c r="C153" s="23" t="s">
         <v>4</v>
       </c>
       <c r="D153" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E153" s="23"/>
+      <c r="E153" s="24"/>
       <c r="F153" s="1">
         <v>124</v>
       </c>
@@ -4078,13 +4170,13 @@
       <c r="B154" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="C154" s="22" t="s">
+      <c r="C154" s="23" t="s">
         <v>5</v>
       </c>
       <c r="D154" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E154" s="23"/>
+      <c r="E154" s="24"/>
       <c r="F154" s="1">
         <v>125</v>
       </c>
@@ -4096,13 +4188,13 @@
       <c r="B155" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="C155" s="22" t="s">
+      <c r="C155" s="23" t="s">
         <v>6</v>
       </c>
       <c r="D155" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E155" s="23"/>
+      <c r="E155" s="24"/>
       <c r="F155" s="1">
         <v>126</v>
       </c>
@@ -4114,13 +4206,13 @@
       <c r="B156" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C156" s="24" t="s">
+      <c r="C156" s="25" t="s">
         <v>84</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E156" s="36"/>
+      <c r="E156" s="38"/>
       <c r="F156" s="1">
         <v>127</v>
       </c>
@@ -4132,13 +4224,13 @@
       <c r="B157" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="C157" s="24" t="s">
+      <c r="C157" s="25" t="s">
         <v>136</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E157" s="36"/>
+      <c r="E157" s="38"/>
       <c r="F157" s="1">
         <v>128</v>
       </c>
@@ -4150,13 +4242,13 @@
       <c r="B158" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C158" s="24" t="s">
+      <c r="C158" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E158" s="36"/>
+      <c r="E158" s="38"/>
       <c r="F158" s="1">
         <v>129</v>
       </c>
@@ -4168,13 +4260,13 @@
       <c r="B159" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C159" s="24" t="s">
+      <c r="C159" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E159" s="36"/>
+      <c r="E159" s="38"/>
       <c r="F159" s="1">
         <v>130</v>
       </c>
@@ -4186,13 +4278,13 @@
       <c r="B160" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C160" s="24" t="s">
+      <c r="C160" s="25" t="s">
         <v>137</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E160" s="36"/>
+      <c r="E160" s="38"/>
       <c r="F160" s="1">
         <v>131</v>
       </c>
@@ -4204,13 +4296,13 @@
       <c r="B161" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="C161" s="24" t="s">
+      <c r="C161" s="25" t="s">
         <v>107</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E161" s="36"/>
+      <c r="E161" s="38"/>
       <c r="F161" s="1">
         <v>132</v>
       </c>
@@ -4222,13 +4314,13 @@
       <c r="B162" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="C162" s="24" t="s">
+      <c r="C162" s="25" t="s">
         <v>108</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E162" s="36"/>
+      <c r="E162" s="38"/>
       <c r="F162" s="1">
         <v>133</v>
       </c>
@@ -4240,13 +4332,13 @@
       <c r="B163" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C163" s="24" t="s">
+      <c r="C163" s="25" t="s">
         <v>138</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E163" s="36"/>
+      <c r="E163" s="38"/>
       <c r="F163" s="1">
         <v>134</v>
       </c>
@@ -4258,13 +4350,13 @@
       <c r="B164" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C164" s="24" t="s">
+      <c r="C164" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E164" s="36"/>
+      <c r="E164" s="38"/>
       <c r="F164" s="1">
         <v>135</v>
       </c>
@@ -4276,13 +4368,13 @@
       <c r="B165" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C165" s="24" t="s">
+      <c r="C165" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E165" s="36"/>
+      <c r="E165" s="38"/>
       <c r="F165" s="1">
         <v>136</v>
       </c>
@@ -4294,13 +4386,13 @@
       <c r="B166" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C166" s="24" t="s">
+      <c r="C166" s="25" t="s">
         <v>4</v>
       </c>
       <c r="D166" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E166" s="36"/>
+      <c r="E166" s="38"/>
       <c r="F166" s="1">
         <v>137</v>
       </c>
@@ -4312,13 +4404,13 @@
       <c r="B167" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="C167" s="24" t="s">
+      <c r="C167" s="25" t="s">
         <v>5</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E167" s="36"/>
+      <c r="E167" s="38"/>
       <c r="F167" s="1">
         <v>138</v>
       </c>
@@ -4330,13 +4422,13 @@
       <c r="B168" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="C168" s="24" t="s">
+      <c r="C168" s="25" t="s">
         <v>6</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E168" s="36"/>
+      <c r="E168" s="38"/>
       <c r="F168" s="1">
         <v>139</v>
       </c>
@@ -4348,13 +4440,13 @@
       <c r="B169" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C169" s="29" t="s">
+      <c r="C169" s="30" t="s">
         <v>140</v>
       </c>
       <c r="D169" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E169" s="39"/>
+      <c r="E169" s="41"/>
       <c r="F169" s="1">
         <v>140</v>
       </c>
@@ -4366,13 +4458,13 @@
       <c r="B170" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C170" s="29" t="s">
+      <c r="C170" s="30" t="s">
         <v>84</v>
       </c>
       <c r="D170" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E170" s="39"/>
+      <c r="E170" s="41"/>
       <c r="F170" s="1">
         <v>141</v>
       </c>
@@ -4384,13 +4476,13 @@
       <c r="B171" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C171" s="29" t="s">
+      <c r="C171" s="30" t="s">
         <v>141</v>
       </c>
       <c r="D171" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E171" s="39"/>
+      <c r="E171" s="41"/>
       <c r="F171" s="1">
         <v>142</v>
       </c>
@@ -4402,13 +4494,13 @@
       <c r="B172" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C172" s="29" t="s">
+      <c r="C172" s="30" t="s">
         <v>142</v>
       </c>
       <c r="D172" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E172" s="39"/>
+      <c r="E172" s="41"/>
       <c r="F172" s="1">
         <v>143</v>
       </c>
@@ -4420,13 +4512,13 @@
       <c r="B173" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C173" s="29" t="s">
+      <c r="C173" s="30" t="s">
         <v>143</v>
       </c>
       <c r="D173" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E173" s="39"/>
+      <c r="E173" s="41"/>
       <c r="F173" s="1">
         <v>144</v>
       </c>
@@ -4438,13 +4530,13 @@
       <c r="B174" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C174" s="29" t="s">
+      <c r="C174" s="30" t="s">
         <v>144</v>
       </c>
       <c r="D174" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E174" s="39"/>
+      <c r="E174" s="41"/>
       <c r="F174" s="1">
         <v>145</v>
       </c>
@@ -4456,13 +4548,13 @@
       <c r="B175" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C175" s="29" t="s">
+      <c r="C175" s="30" t="s">
         <v>145</v>
       </c>
       <c r="D175" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E175" s="39"/>
+      <c r="E175" s="41"/>
       <c r="F175" s="1">
         <v>146</v>
       </c>
@@ -4474,13 +4566,13 @@
       <c r="B176" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C176" s="29" t="s">
+      <c r="C176" s="30" t="s">
         <v>146</v>
       </c>
       <c r="D176" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E176" s="39"/>
+      <c r="E176" s="41"/>
       <c r="F176" s="1">
         <v>147</v>
       </c>
@@ -4492,13 +4584,13 @@
       <c r="B177" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C177" s="29" t="s">
+      <c r="C177" s="30" t="s">
         <v>147</v>
       </c>
       <c r="D177" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E177" s="39"/>
+      <c r="E177" s="41"/>
       <c r="F177" s="1">
         <v>148</v>
       </c>
@@ -4510,13 +4602,13 @@
       <c r="B178" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C178" s="29" t="s">
+      <c r="C178" s="30" t="s">
         <v>4</v>
       </c>
       <c r="D178" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E178" s="39"/>
+      <c r="E178" s="41"/>
       <c r="F178" s="1">
         <v>149</v>
       </c>
@@ -4528,13 +4620,13 @@
       <c r="B179" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C179" s="29" t="s">
+      <c r="C179" s="30" t="s">
         <v>5</v>
       </c>
       <c r="D179" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E179" s="39"/>
+      <c r="E179" s="41"/>
       <c r="F179" s="1">
         <v>150</v>
       </c>
@@ -4546,13 +4638,13 @@
       <c r="B180" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C180" s="29" t="s">
+      <c r="C180" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D180" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E180" s="39"/>
+      <c r="E180" s="41"/>
       <c r="F180" s="1">
         <v>151</v>
       </c>
@@ -4569,7 +4661,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="B2" sqref="B2:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6789,29 +6881,29 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
+    <row r="2" spans="1:20" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="20">
         <v>3</v>
       </c>
-      <c r="L2" s="19">
+      <c r="L2" s="20">
         <v>3</v>
       </c>
     </row>
@@ -6852,7 +6944,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6928,7 +7020,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7629,169 +7721,2098 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.28515625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>323</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>322</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="L1" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="M1" s="45" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="H4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H6" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H7" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="37">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37">
+        <v>1</v>
+      </c>
+      <c r="H8" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="37">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37">
+        <v>2</v>
+      </c>
+      <c r="H9" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="37">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37">
+        <v>3</v>
+      </c>
+      <c r="H10" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="37">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37">
+        <v>4</v>
+      </c>
+      <c r="H11" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="37">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37">
+        <v>5</v>
+      </c>
+      <c r="H12" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="37">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37">
+        <v>6</v>
+      </c>
+      <c r="H13" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="47">
+        <v>13</v>
+      </c>
+      <c r="B14" s="47">
+        <v>1</v>
+      </c>
+      <c r="C14" s="47">
+        <v>1</v>
+      </c>
+      <c r="D14" s="47">
+        <v>2</v>
+      </c>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H14" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="47">
+        <v>14</v>
+      </c>
+      <c r="B15" s="47">
+        <v>1</v>
+      </c>
+      <c r="C15" s="47">
+        <v>1</v>
+      </c>
+      <c r="D15" s="47">
+        <v>2</v>
+      </c>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47">
+        <v>1.2</v>
+      </c>
+      <c r="H15" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="47">
+        <v>15</v>
+      </c>
+      <c r="B16" s="47">
+        <v>1</v>
+      </c>
+      <c r="C16" s="47">
+        <v>1</v>
+      </c>
+      <c r="D16" s="47">
+        <v>2</v>
+      </c>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47">
+        <v>1.3</v>
+      </c>
+      <c r="H16" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="47">
+        <v>16</v>
+      </c>
+      <c r="B17" s="47">
+        <v>1</v>
+      </c>
+      <c r="C17" s="47">
+        <v>1</v>
+      </c>
+      <c r="D17" s="47">
+        <v>2</v>
+      </c>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47">
+        <v>1.4</v>
+      </c>
+      <c r="H17" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="47">
+        <v>17</v>
+      </c>
+      <c r="B18" s="47">
+        <v>1</v>
+      </c>
+      <c r="C18" s="47">
+        <v>1</v>
+      </c>
+      <c r="D18" s="47">
+        <v>2</v>
+      </c>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47">
+        <v>1.5</v>
+      </c>
+      <c r="H18" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="49">
+        <v>18</v>
+      </c>
+      <c r="B19" s="49">
+        <v>2</v>
+      </c>
+      <c r="C19" s="49">
+        <v>2</v>
+      </c>
+      <c r="D19" s="47">
+        <v>2</v>
+      </c>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+    </row>
+    <row r="20" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="49">
+        <v>19</v>
+      </c>
+      <c r="B20" s="49">
+        <v>2</v>
+      </c>
+      <c r="C20" s="49">
+        <v>2</v>
+      </c>
+      <c r="D20" s="47">
+        <v>2</v>
+      </c>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+    </row>
+    <row r="21" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="43">
+        <v>20</v>
+      </c>
+      <c r="B21" s="43">
+        <v>3</v>
+      </c>
+      <c r="C21" s="43">
+        <v>3</v>
+      </c>
+      <c r="D21" s="47">
+        <v>2</v>
+      </c>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+    </row>
+    <row r="22" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="43">
+        <v>21</v>
+      </c>
+      <c r="B22" s="43">
+        <v>3</v>
+      </c>
+      <c r="C22" s="43">
+        <v>3</v>
+      </c>
+      <c r="D22" s="47">
+        <v>2</v>
+      </c>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+    </row>
+    <row r="23" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="43">
+        <v>22</v>
+      </c>
+      <c r="B23" s="43">
+        <v>3</v>
+      </c>
+      <c r="C23" s="43">
+        <v>3</v>
+      </c>
+      <c r="D23" s="47">
+        <v>2</v>
+      </c>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+    </row>
+    <row r="24" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="43">
+        <v>23</v>
+      </c>
+      <c r="B24" s="43">
+        <v>3</v>
+      </c>
+      <c r="C24" s="43">
+        <v>3</v>
+      </c>
+      <c r="D24" s="47">
+        <v>2</v>
+      </c>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+    </row>
+    <row r="25" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="43">
+        <v>24</v>
+      </c>
+      <c r="B25" s="43">
+        <v>3</v>
+      </c>
+      <c r="C25" s="43">
+        <v>3</v>
+      </c>
+      <c r="D25" s="47">
+        <v>2</v>
+      </c>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+    </row>
+    <row r="26" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="43">
+        <v>25</v>
+      </c>
+      <c r="B26" s="43">
+        <v>3</v>
+      </c>
+      <c r="C26" s="43">
+        <v>3</v>
+      </c>
+      <c r="D26" s="47">
+        <v>2</v>
+      </c>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+    </row>
+    <row r="27" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="53">
+        <v>26</v>
+      </c>
+      <c r="B27" s="53">
+        <v>4</v>
+      </c>
+      <c r="C27" s="53">
+        <v>4</v>
+      </c>
+      <c r="D27" s="47">
+        <v>2</v>
+      </c>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+    </row>
+    <row r="28" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="53">
+        <v>27</v>
+      </c>
+      <c r="B28" s="53">
+        <v>4</v>
+      </c>
+      <c r="C28" s="53">
+        <v>4</v>
+      </c>
+      <c r="D28" s="47">
+        <v>2</v>
+      </c>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+    </row>
+    <row r="29" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="53">
+        <v>28</v>
+      </c>
+      <c r="B29" s="53">
+        <v>4</v>
+      </c>
+      <c r="C29" s="53">
+        <v>4</v>
+      </c>
+      <c r="D29" s="47">
+        <v>2</v>
+      </c>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+    </row>
+    <row r="30" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="42">
+        <v>29</v>
+      </c>
+      <c r="B30" s="42">
+        <v>5</v>
+      </c>
+      <c r="C30" s="42">
+        <v>5</v>
+      </c>
+      <c r="D30" s="47">
+        <v>2</v>
+      </c>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+    </row>
+    <row r="31" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="42">
+        <v>30</v>
+      </c>
+      <c r="B31" s="42">
+        <v>5</v>
+      </c>
+      <c r="C31" s="42">
+        <v>5</v>
+      </c>
+      <c r="D31" s="47">
+        <v>2</v>
+      </c>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+    </row>
+    <row r="32" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="57">
+        <v>31</v>
+      </c>
+      <c r="B32" s="57">
+        <v>6</v>
+      </c>
+      <c r="C32" s="57">
+        <v>6</v>
+      </c>
+      <c r="D32" s="47">
+        <v>2</v>
+      </c>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+    </row>
+    <row r="33" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="57">
+        <v>32</v>
+      </c>
+      <c r="B33" s="57">
+        <v>6</v>
+      </c>
+      <c r="C33" s="57">
+        <v>6</v>
+      </c>
+      <c r="D33" s="47">
+        <v>2</v>
+      </c>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+    </row>
+    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>7</v>
+      </c>
+      <c r="C34" s="1">
+        <v>7</v>
+      </c>
+      <c r="D34" s="47">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>7</v>
+      </c>
+      <c r="C35" s="1">
+        <v>7</v>
+      </c>
+      <c r="D35" s="47">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1">
+        <v>7</v>
+      </c>
+      <c r="D36" s="47">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>7</v>
+      </c>
+      <c r="C37" s="1">
+        <v>7</v>
+      </c>
+      <c r="D37" s="47">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="61">
+        <v>13</v>
+      </c>
+      <c r="C38" s="61">
+        <v>1</v>
+      </c>
+      <c r="D38" s="61">
+        <v>3</v>
+      </c>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="I38" s="61"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="61"/>
+      <c r="L38" s="61"/>
+      <c r="M38" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="61">
+        <v>13</v>
+      </c>
+      <c r="C39" s="61">
+        <v>1</v>
+      </c>
+      <c r="D39" s="61">
+        <v>3</v>
+      </c>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="I39" s="61"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="61"/>
+      <c r="L39" s="61"/>
+      <c r="M39" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="61">
+        <v>13</v>
+      </c>
+      <c r="C40" s="61">
+        <v>1</v>
+      </c>
+      <c r="D40" s="61">
+        <v>3</v>
+      </c>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="I40" s="61"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="61"/>
+      <c r="M40" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="61">
+        <v>13</v>
+      </c>
+      <c r="C41" s="61">
+        <v>1</v>
+      </c>
+      <c r="D41" s="61">
+        <v>3</v>
+      </c>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="I41" s="61"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="61"/>
+      <c r="L41" s="61"/>
+      <c r="M41" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="61">
+        <v>13</v>
+      </c>
+      <c r="C42" s="61">
+        <v>1</v>
+      </c>
+      <c r="D42" s="61">
+        <v>3</v>
+      </c>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="I42" s="61"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="61"/>
+      <c r="L42" s="61"/>
+      <c r="M42" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="61">
+        <v>14</v>
+      </c>
+      <c r="C43" s="61">
+        <v>2</v>
+      </c>
+      <c r="D43" s="61">
+        <v>3</v>
+      </c>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="I43" s="61"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="61"/>
+      <c r="L43" s="61"/>
+      <c r="M43" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="61">
+        <v>14</v>
+      </c>
+      <c r="C44" s="61">
+        <v>2</v>
+      </c>
+      <c r="D44" s="61">
+        <v>3</v>
+      </c>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="I44" s="61"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="61"/>
+      <c r="M44" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="61">
+        <v>14</v>
+      </c>
+      <c r="C45" s="61">
+        <v>2</v>
+      </c>
+      <c r="D45" s="61">
+        <v>3</v>
+      </c>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="I45" s="61"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="61"/>
+      <c r="L45" s="61"/>
+      <c r="M45" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="61">
+        <v>14</v>
+      </c>
+      <c r="C46" s="61">
+        <v>2</v>
+      </c>
+      <c r="D46" s="61">
+        <v>3</v>
+      </c>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="I46" s="61"/>
+      <c r="J46" s="61"/>
+      <c r="K46" s="61"/>
+      <c r="L46" s="61"/>
+      <c r="M46" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="61">
+        <v>14</v>
+      </c>
+      <c r="C47" s="61">
+        <v>2</v>
+      </c>
+      <c r="D47" s="61">
+        <v>3</v>
+      </c>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="I47" s="61"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="61"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="61">
+        <v>15</v>
+      </c>
+      <c r="C48" s="61">
+        <v>3</v>
+      </c>
+      <c r="D48" s="61">
+        <v>3</v>
+      </c>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="I48" s="61"/>
+      <c r="J48" s="61"/>
+      <c r="K48" s="61"/>
+      <c r="L48" s="61"/>
+      <c r="M48" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="61">
+        <v>15</v>
+      </c>
+      <c r="C49" s="61">
+        <v>3</v>
+      </c>
+      <c r="D49" s="61">
+        <v>3</v>
+      </c>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
+      <c r="L49" s="61"/>
+      <c r="M49" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="61">
+        <v>15</v>
+      </c>
+      <c r="C50" s="61">
+        <v>3</v>
+      </c>
+      <c r="D50" s="61">
+        <v>3</v>
+      </c>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="I50" s="61"/>
+      <c r="J50" s="61"/>
+      <c r="K50" s="61"/>
+      <c r="L50" s="61"/>
+      <c r="M50" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="61">
+        <v>16</v>
+      </c>
+      <c r="C51" s="61">
+        <v>4</v>
+      </c>
+      <c r="D51" s="61">
+        <v>3</v>
+      </c>
+      <c r="E51" s="61"/>
+      <c r="F51" s="61"/>
+      <c r="G51" s="61"/>
+      <c r="H51" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="I51" s="61"/>
+      <c r="J51" s="61"/>
+      <c r="K51" s="61"/>
+      <c r="L51" s="61"/>
+      <c r="M51" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="61">
+        <v>16</v>
+      </c>
+      <c r="C52" s="61">
+        <v>4</v>
+      </c>
+      <c r="D52" s="61">
+        <v>3</v>
+      </c>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="I52" s="61"/>
+      <c r="J52" s="61"/>
+      <c r="K52" s="61"/>
+      <c r="L52" s="61"/>
+      <c r="M52" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="61">
+        <v>16</v>
+      </c>
+      <c r="C53" s="61">
+        <v>4</v>
+      </c>
+      <c r="D53" s="61">
+        <v>3</v>
+      </c>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="I53" s="61"/>
+      <c r="J53" s="61"/>
+      <c r="K53" s="61"/>
+      <c r="L53" s="61"/>
+      <c r="M53" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="61">
+        <v>16</v>
+      </c>
+      <c r="C54" s="61">
+        <v>4</v>
+      </c>
+      <c r="D54" s="61">
+        <v>3</v>
+      </c>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="61"/>
+      <c r="H54" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="I54" s="61"/>
+      <c r="J54" s="61"/>
+      <c r="K54" s="61"/>
+      <c r="L54" s="61"/>
+      <c r="M54" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="61">
+        <v>17</v>
+      </c>
+      <c r="C55" s="61">
+        <v>5</v>
+      </c>
+      <c r="D55" s="61">
+        <v>3</v>
+      </c>
+      <c r="E55" s="61"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="61"/>
+      <c r="H55" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="I55" s="61"/>
+      <c r="J55" s="61"/>
+      <c r="K55" s="61"/>
+      <c r="L55" s="61"/>
+      <c r="M55" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="61">
+        <v>17</v>
+      </c>
+      <c r="C56" s="61">
+        <v>5</v>
+      </c>
+      <c r="D56" s="61">
+        <v>3</v>
+      </c>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="61"/>
+      <c r="H56" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="I56" s="61"/>
+      <c r="J56" s="61"/>
+      <c r="K56" s="61"/>
+      <c r="L56" s="61"/>
+      <c r="M56" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="61">
+        <v>17</v>
+      </c>
+      <c r="C57" s="61">
+        <v>5</v>
+      </c>
+      <c r="D57" s="61">
+        <v>3</v>
+      </c>
+      <c r="E57" s="61"/>
+      <c r="F57" s="61"/>
+      <c r="G57" s="61"/>
+      <c r="H57" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="I57" s="61"/>
+      <c r="J57" s="61"/>
+      <c r="K57" s="61"/>
+      <c r="L57" s="61"/>
+      <c r="M57" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="61">
+        <v>17</v>
+      </c>
+      <c r="C58" s="61">
+        <v>5</v>
+      </c>
+      <c r="D58" s="61">
+        <v>3</v>
+      </c>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="61"/>
+      <c r="H58" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="I58" s="61"/>
+      <c r="J58" s="61"/>
+      <c r="K58" s="61"/>
+      <c r="L58" s="61"/>
+      <c r="M58" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="37">
+        <v>58</v>
+      </c>
+      <c r="B59" s="37">
+        <v>6</v>
+      </c>
+      <c r="C59" s="37">
+        <v>6</v>
+      </c>
+      <c r="D59" s="37">
+        <v>3</v>
+      </c>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="37">
+        <v>59</v>
+      </c>
+      <c r="B60" s="37">
+        <v>6</v>
+      </c>
+      <c r="C60" s="37">
+        <v>6</v>
+      </c>
+      <c r="D60" s="37">
+        <v>3</v>
+      </c>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="37">
+        <v>60</v>
+      </c>
+      <c r="B61" s="37">
+        <v>7</v>
+      </c>
+      <c r="C61" s="37">
+        <v>7</v>
+      </c>
+      <c r="D61" s="37">
+        <v>3</v>
+      </c>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1">
+        <v>4</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+    </row>
+    <row r="63" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <v>2</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2</v>
+      </c>
+      <c r="D63" s="1">
+        <v>4</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+    </row>
+    <row r="64" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1">
+        <v>3</v>
+      </c>
+      <c r="C64" s="1">
+        <v>3</v>
+      </c>
+      <c r="D64" s="1">
+        <v>4</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+    </row>
+    <row r="65" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1">
+        <v>4</v>
+      </c>
+      <c r="C65" s="1">
+        <v>4</v>
+      </c>
+      <c r="D65" s="1">
+        <v>4</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+    </row>
+    <row r="66" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1">
+        <v>5</v>
+      </c>
+      <c r="C66" s="1">
+        <v>5</v>
+      </c>
+      <c r="D66" s="1">
+        <v>4</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1">
+        <v>5</v>
+      </c>
+      <c r="C67" s="1">
+        <v>5</v>
+      </c>
+      <c r="D67" s="1">
+        <v>4</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1">
+        <v>5</v>
+      </c>
+      <c r="C68" s="1">
+        <v>5</v>
+      </c>
+      <c r="D68" s="1">
+        <v>4</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1">
+        <v>5</v>
+      </c>
+      <c r="C69" s="1">
+        <v>5</v>
+      </c>
+      <c r="D69" s="1">
+        <v>4</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1">
+        <v>5</v>
+      </c>
+      <c r="C70" s="1">
+        <v>5</v>
+      </c>
+      <c r="D70" s="1">
+        <v>4</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+    </row>
+    <row r="71" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1">
+        <v>6</v>
+      </c>
+      <c r="C71" s="1">
+        <v>6</v>
+      </c>
+      <c r="D71" s="1">
+        <v>4</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+    </row>
+    <row r="72" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1">
+        <v>7</v>
+      </c>
+      <c r="C72" s="1">
+        <v>7</v>
+      </c>
+      <c r="D72" s="1">
+        <v>4</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+    </row>
+    <row r="73" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1">
+        <v>8</v>
+      </c>
+      <c r="C73" s="1">
+        <v>8</v>
+      </c>
+      <c r="D73" s="1">
+        <v>4</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1">
+        <v>8</v>
+      </c>
+      <c r="C74" s="1">
+        <v>8</v>
+      </c>
+      <c r="D74" s="1">
+        <v>4</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+    </row>
+    <row r="75" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1">
+        <v>9</v>
+      </c>
+      <c r="C75" s="1">
+        <v>9</v>
+      </c>
+      <c r="D75" s="1">
+        <v>4</v>
+      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1">
+        <v>10</v>
+      </c>
+      <c r="C76" s="1">
+        <v>10</v>
+      </c>
+      <c r="D76" s="1">
+        <v>4</v>
+      </c>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1">
+        <v>10</v>
+      </c>
+      <c r="C77" s="1">
+        <v>10</v>
+      </c>
+      <c r="D77" s="1">
+        <v>4</v>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1">
+        <v>10</v>
+      </c>
+      <c r="C78" s="1">
+        <v>10</v>
+      </c>
+      <c r="D78" s="1">
+        <v>4</v>
+      </c>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+    </row>
+    <row r="79" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1">
+        <v>10</v>
+      </c>
+      <c r="C79" s="1">
+        <v>10</v>
+      </c>
+      <c r="D79" s="1">
+        <v>4</v>
+      </c>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+    </row>
+    <row r="80" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1">
+        <v>11</v>
+      </c>
+      <c r="C80" s="1">
+        <v>11</v>
+      </c>
+      <c r="D80" s="1">
+        <v>4</v>
+      </c>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+    </row>
+    <row r="81" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1">
+        <v>12</v>
+      </c>
+      <c r="C81" s="1">
+        <v>12</v>
+      </c>
+      <c r="D81" s="1">
+        <v>4</v>
+      </c>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7803,7 +9824,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:C14"/>
+      <selection activeCell="B2" sqref="B2:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8182,7 +10203,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
